--- a/DATA/data.xlsx
+++ b/DATA/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Billing_Streamlit_App1\DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Billing_Streamlit_App\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9164D5-1DEA-4AD9-BE1D-90CDA0F65D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079BA33D-FAB3-4F1C-ACC4-7DE2B613B534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{072B8087-28A9-48A8-85BB-B827BBE7DFBC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{072B8087-28A9-48A8-85BB-B827BBE7DFBC}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>Name of DB</t>
   </si>
@@ -109,13 +109,10 @@
     <t>AdminSubhash</t>
   </si>
   <si>
-    <t>PriyaGold@1122</t>
-  </si>
-  <si>
-    <t>PriyaGold@1063</t>
-  </si>
-  <si>
     <t>PriyaGold@1234</t>
+  </si>
+  <si>
+    <t>PriyaGold@1123</t>
   </si>
 </sst>
 </file>
@@ -569,7 +566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A62BD193-EEB2-4115-A92F-44F9365E9D4D}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -708,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72550C3A-5561-433A-89E7-6896292CF24C}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -745,7 +742,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -775,13 +772,15 @@
         <v>21</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D4" xr:uid="{72550C3A-5561-433A-89E7-6896292CF24C}"/>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" xr:uid="{E9EEA698-1ED7-41F0-8D2B-FAE5C6C4C792}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{B3186AFE-5C6F-454A-9C36-367D7ADBFB7C}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{521501A1-EE09-4616-AED3-36F9D6FB6327}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DATA/data.xlsx
+++ b/DATA/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Billing_Streamlit_App\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079BA33D-FAB3-4F1C-ACC4-7DE2B613B534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C14BF0-DD66-4B14-BDAB-F8611EB38122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{072B8087-28A9-48A8-85BB-B827BBE7DFBC}"/>
   </bookViews>
